--- a/gittest.xlsx
+++ b/gittest.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="15120" windowHeight="8010"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>pull</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,20 +45,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +96,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -144,6 +130,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,9 +165,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -212,20 +200,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -347,40 +331,83 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>test</v>
+      </c>
+      <c r="B1" t="str">
+        <v>pull</v>
+      </c>
+      <c r="C1" t="str">
+        <v>setup</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" t="str">
+        <v>test</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -390,10 +417,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -403,9 +430,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>